--- a/Scenarios/common/masterinput_v4.xlsx
+++ b/Scenarios/common/masterinput_v4.xlsx
@@ -16,8 +16,9 @@
     <sheet name="Rotations_org" sheetId="11" r:id="rId2"/>
     <sheet name="Manure1" sheetId="10" r:id="rId3"/>
     <sheet name="Crops" sheetId="2" r:id="rId4"/>
-    <sheet name="Crops_JB6" sheetId="7" r:id="rId5"/>
-    <sheet name="soil_climate_more" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="Crops_JB6" sheetId="7" r:id="rId6"/>
+    <sheet name="soil_climate_more" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Crops!$A$1:$N$29</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -485,6 +486,9 @@
   </si>
   <si>
     <t>JB1-DSG</t>
+  </si>
+  <si>
+    <t>SB-green</t>
   </si>
 </sst>
 </file>
@@ -971,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1297,6 +1301,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,7 +2943,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="M1" activeCellId="3" sqref="A1:A1048576 G1:G1048576 H1:H1048576 M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,7 +3232,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="H8" s="88" t="s">
         <v>83</v>
@@ -4080,6 +4109,506 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="118"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119">
+        <v>11</v>
+      </c>
+      <c r="E2" s="119"/>
+      <c r="F2" s="118"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119">
+        <v>10</v>
+      </c>
+      <c r="E3" s="119"/>
+      <c r="F3" s="118"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119">
+        <v>14</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="118"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119">
+        <v>22</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="118"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118">
+        <v>2</v>
+      </c>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119">
+        <v>1</v>
+      </c>
+      <c r="E7" s="119"/>
+      <c r="F7" s="118"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="119">
+        <v>701</v>
+      </c>
+      <c r="E8" s="119">
+        <v>963</v>
+      </c>
+      <c r="F8" s="118"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="119">
+        <v>1</v>
+      </c>
+      <c r="E9" s="119">
+        <v>970</v>
+      </c>
+      <c r="F9" s="118"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="119">
+        <v>1</v>
+      </c>
+      <c r="E10" s="119">
+        <v>970</v>
+      </c>
+      <c r="F10" s="118"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="119">
+        <v>1</v>
+      </c>
+      <c r="E11" s="119">
+        <v>970</v>
+      </c>
+      <c r="F11" s="118"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="119">
+        <v>2</v>
+      </c>
+      <c r="E12" s="119">
+        <v>970</v>
+      </c>
+      <c r="F12" s="118"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="119">
+        <v>10</v>
+      </c>
+      <c r="E13" s="119">
+        <v>970</v>
+      </c>
+      <c r="F13" s="118"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119">
+        <v>14</v>
+      </c>
+      <c r="E14" s="119">
+        <v>970</v>
+      </c>
+      <c r="F14" s="118"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="119">
+        <v>1</v>
+      </c>
+      <c r="E15" s="119">
+        <v>101</v>
+      </c>
+      <c r="F15" s="118"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119">
+        <v>101</v>
+      </c>
+      <c r="E16" s="119"/>
+      <c r="F16" s="118"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119">
+        <v>151</v>
+      </c>
+      <c r="E17" s="119"/>
+      <c r="F17" s="118"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119">
+        <v>216</v>
+      </c>
+      <c r="E18" s="119"/>
+      <c r="F18" s="118"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119">
+        <v>160</v>
+      </c>
+      <c r="E19" s="119"/>
+      <c r="F19" s="118"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119">
+        <v>30</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="118"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119">
+        <v>261</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="118"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119">
+        <v>260</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="118"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="119">
+        <v>216</v>
+      </c>
+      <c r="E23" s="119">
+        <v>970</v>
+      </c>
+      <c r="F23" s="118"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119">
+        <v>252</v>
+      </c>
+      <c r="E24" s="119"/>
+      <c r="F24" s="118"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119">
+        <v>252</v>
+      </c>
+      <c r="E25" s="119"/>
+      <c r="F25" s="118"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="118"/>
+      <c r="D26" s="119">
+        <v>252</v>
+      </c>
+      <c r="E26" s="119"/>
+      <c r="F26" s="118"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119">
+        <v>252</v>
+      </c>
+      <c r="E27" s="119"/>
+      <c r="F27" s="118"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="119">
+        <v>257</v>
+      </c>
+      <c r="E28" s="119"/>
+      <c r="F28" s="118"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119">
+        <v>257</v>
+      </c>
+      <c r="E29" s="119"/>
+      <c r="F29" s="118"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119">
+        <v>256</v>
+      </c>
+      <c r="E30" s="119"/>
+      <c r="F30" s="118"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119">
+        <v>256</v>
+      </c>
+      <c r="E31" s="119"/>
+      <c r="F31" s="118"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="121"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="121"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -4525,12 +5054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,17 +5069,17 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="114" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4589,5 +5118,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scenarios/common/masterinput_v4.xlsx
+++ b/Scenarios/common/masterinput_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1629,7 @@
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2942,8 +2942,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="3" sqref="A1:A1048576 G1:G1048576 H1:H1048576 M1:N1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,36 +3849,28 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="94">
-        <v>43556</v>
-      </c>
-      <c r="C25" s="94">
-        <v>43560</v>
-      </c>
+      <c r="A25" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="94"/>
       <c r="E25" s="94" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="65" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H25" s="88"/>
       <c r="I25" s="93">
-        <v>43570</v>
+        <v>43586</v>
       </c>
       <c r="J25" s="93">
-        <v>43622</v>
-      </c>
-      <c r="K25" s="89">
         <v>43662</v>
       </c>
-      <c r="L25" s="90">
-        <v>43698</v>
-      </c>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="72">
         <v>252</v>
       </c>
@@ -3887,28 +3879,36 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="94">
+        <v>43556</v>
+      </c>
+      <c r="C26" s="94">
+        <v>43560</v>
+      </c>
       <c r="D26" s="94"/>
       <c r="E26" s="94" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="66"/>
       <c r="G26" s="65" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H26" s="88"/>
       <c r="I26" s="93">
-        <v>43586</v>
+        <v>43570</v>
       </c>
       <c r="J26" s="93">
+        <v>43622</v>
+      </c>
+      <c r="K26" s="89">
         <v>43662</v>
       </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
+      <c r="L26" s="90">
+        <v>43698</v>
+      </c>
       <c r="M26" s="72">
         <v>252</v>
       </c>

--- a/Scenarios/common/masterinput_v4.xlsx
+++ b/Scenarios/common/masterinput_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Vinterbyg PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinterhvede </t>
   </si>
   <si>
     <t>PØ11</t>
@@ -1607,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,84 +1632,87 @@
     <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="U1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="38" t="s">
-        <v>46</v>
-      </c>
       <c r="W1" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="Y1" s="96" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="99">
         <v>1</v>
       </c>
@@ -1726,31 +1726,31 @@
         <v>30</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>3</v>
@@ -1765,28 +1765,31 @@
         <v>2</v>
       </c>
       <c r="R2" s="111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S2" s="111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T2" s="78" t="s">
         <v>5</v>
       </c>
       <c r="U2" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V2" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W2" s="79" t="s">
         <v>41</v>
       </c>
       <c r="X2" s="52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="Y2" s="52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>9</v>
@@ -1815,16 +1818,16 @@
         <v>9</v>
       </c>
       <c r="J3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>41</v>
@@ -1844,8 +1847,8 @@
       <c r="S3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="45" t="s">
-        <v>2</v>
+      <c r="T3" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="U3" s="31" t="s">
         <v>32</v>
@@ -1859,8 +1862,11 @@
       <c r="X3" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>9</v>
@@ -1889,19 +1895,19 @@
         <v>9</v>
       </c>
       <c r="J4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>59</v>
-      </c>
       <c r="M4" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="36" t="s">
         <v>1</v>
@@ -1918,8 +1924,8 @@
       <c r="S4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="44" t="s">
-        <v>41</v>
+      <c r="T4" s="45" t="s">
+        <v>2</v>
       </c>
       <c r="U4" s="81" t="s">
         <v>41</v>
@@ -1933,8 +1939,11 @@
       <c r="X4" s="30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1963,16 +1972,16 @@
         <v>9</v>
       </c>
       <c r="J5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>59</v>
-      </c>
       <c r="M5" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N5" s="36" t="s">
         <v>1</v>
@@ -1996,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="U5" s="109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V5" s="81" t="s">
         <v>41</v>
@@ -2007,8 +2016,11 @@
       <c r="X5" s="30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y5" s="81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2037,16 +2049,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>59</v>
-      </c>
       <c r="M6" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N6" s="48" t="s">
         <v>2</v>
@@ -2058,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T6" s="26" t="s">
         <v>1</v>
@@ -2067,7 +2079,7 @@
         <v>31</v>
       </c>
       <c r="V6" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W6" s="53" t="s">
         <v>1</v>
@@ -2075,8 +2087,11 @@
       <c r="X6" s="47" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2107,10 +2122,10 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>10</v>
@@ -2127,7 +2142,7 @@
         <v>32</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="U7" s="29" t="s">
         <v>7</v>
@@ -2141,124 +2156,131 @@
       <c r="X7" s="28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>113</v>
-      </c>
       <c r="G8" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P8" s="57"/>
       <c r="Q8" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R8" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S8" s="57"/>
       <c r="T8" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U8" s="57"/>
       <c r="V8" s="57"/>
       <c r="W8" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X8" s="57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="Y8" s="57"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="57"/>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="57"/>
       <c r="M9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="57"/>
       <c r="P9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R9" s="57"/>
       <c r="S9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2309,9 +2331,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -2333,9 +2355,9 @@
       <c r="W11" s="49"/>
       <c r="X11" s="49"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2347,7 +2369,7 @@
       </c>
       <c r="W12" s="49"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
@@ -2362,14 +2384,14 @@
       <c r="R13" s="50"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
@@ -2391,7 +2413,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1048576"/>
+      <selection activeCell="L1" sqref="L1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,37 +2434,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="96" t="s">
         <v>89</v>
-      </c>
-      <c r="L1" s="96" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2453,31 +2475,31 @@
         <v>30</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="52" t="s">
         <v>34</v>
@@ -2488,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>9</v>
@@ -2497,10 +2519,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>34</v>
@@ -2535,10 +2557,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>32</v>
@@ -2573,10 +2595,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>41</v>
@@ -2585,7 +2607,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="81" t="s">
         <v>41</v>
@@ -2611,20 +2633,20 @@
         <v>9</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="47" t="s">
         <v>31</v>
@@ -2648,7 +2670,7 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="110" t="s">
@@ -2664,7 +2686,7 @@
         <v>43</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2688,37 +2710,37 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2731,13 +2753,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2763,27 +2785,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="73" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="74">
         <v>0</v>
@@ -2798,10 +2820,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="73"/>
@@ -2814,10 +2836,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="74">
@@ -2832,10 +2854,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="74">
@@ -2848,10 +2870,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="74">
@@ -2864,10 +2886,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="74">
         <v>0</v>
@@ -2880,10 +2902,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="74">
         <v>0</v>
@@ -2898,10 +2920,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="74">
         <v>0</v>
@@ -2916,10 +2938,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="73">
         <v>0</v>
@@ -2942,8 +2964,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24:M27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,46 +2991,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>99</v>
-      </c>
       <c r="E1" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="87" t="s">
-        <v>86</v>
-      </c>
       <c r="I1" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="L1" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="90" t="s">
-        <v>126</v>
-      </c>
       <c r="M1" s="71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N1" s="71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O1" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="92" t="s">
         <v>140</v>
-      </c>
-      <c r="P1" s="92" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3027,7 +3049,7 @@
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="88"/>
       <c r="I2" s="93">
@@ -3042,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="O2" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3076,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3095,7 +3117,7 @@
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="88"/>
       <c r="I4" s="93">
@@ -3110,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="O4" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3129,7 +3151,7 @@
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="88"/>
       <c r="I5" s="93">
@@ -3144,12 +3166,12 @@
         <v>22</v>
       </c>
       <c r="O5" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="94">
         <v>43556</v>
@@ -3163,7 +3185,7 @@
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="88"/>
       <c r="I6" s="93">
@@ -3177,7 +3199,7 @@
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3209,12 +3231,12 @@
         <v>1</v>
       </c>
       <c r="O7" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="94">
         <v>43556</v>
@@ -3232,10 +3254,10 @@
         <v>24</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="93">
         <v>43568</v>
@@ -3254,15 +3276,15 @@
         <v>963</v>
       </c>
       <c r="O8" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="94">
         <v>43556</v>
@@ -3296,7 +3318,7 @@
         <v>970</v>
       </c>
       <c r="O9" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3335,7 +3357,7 @@
         <v>970</v>
       </c>
       <c r="O10" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3361,7 +3383,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="93">
         <v>43568</v>
@@ -3376,15 +3398,15 @@
         <v>970</v>
       </c>
       <c r="O11" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P11" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="94">
         <v>43556</v>
@@ -3402,10 +3424,10 @@
         <v>43723</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="93">
         <v>43568</v>
@@ -3420,10 +3442,10 @@
         <v>970</v>
       </c>
       <c r="O12" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P12" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -3447,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="93">
         <v>43525</v>
@@ -3464,12 +3486,12 @@
         <v>970</v>
       </c>
       <c r="O13" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="93">
         <v>43362</v>
@@ -3483,7 +3505,7 @@
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" s="88"/>
       <c r="I14" s="93">
@@ -3501,12 +3523,12 @@
         <v>970</v>
       </c>
       <c r="O14" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="94">
         <v>43556</v>
@@ -3542,7 +3564,7 @@
         <v>101</v>
       </c>
       <c r="O15" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -3572,7 +3594,7 @@
         <v>101</v>
       </c>
       <c r="O16" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3591,7 +3613,7 @@
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="88"/>
       <c r="I17" s="93">
@@ -3606,7 +3628,7 @@
         <v>151</v>
       </c>
       <c r="O17" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3640,7 +3662,7 @@
         <v>216</v>
       </c>
       <c r="O18" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3659,7 +3681,7 @@
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="88"/>
       <c r="I19" s="93">
@@ -3674,7 +3696,7 @@
         <v>160</v>
       </c>
       <c r="O19" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3706,7 +3728,7 @@
         <v>30</v>
       </c>
       <c r="O20" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3720,7 +3742,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="88"/>
       <c r="I21" s="93">
@@ -3733,7 +3755,7 @@
         <v>261</v>
       </c>
       <c r="O21" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3747,7 +3769,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="88"/>
       <c r="I22" s="95">
@@ -3766,12 +3788,12 @@
         <v>260</v>
       </c>
       <c r="O22" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="94">
         <v>43586</v>
@@ -3807,12 +3829,12 @@
         <v>970</v>
       </c>
       <c r="O23" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="94">
         <v>43556</v>
@@ -3845,12 +3867,12 @@
         <v>252</v>
       </c>
       <c r="O24" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
@@ -3875,12 +3897,12 @@
         <v>252</v>
       </c>
       <c r="O25" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="94">
         <v>43556</v>
@@ -3894,7 +3916,7 @@
       </c>
       <c r="F26" s="66"/>
       <c r="G26" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="88"/>
       <c r="I26" s="93">
@@ -3913,12 +3935,12 @@
         <v>252</v>
       </c>
       <c r="O26" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="94"/>
       <c r="C27" s="94"/>
@@ -3928,7 +3950,7 @@
       </c>
       <c r="F27" s="66"/>
       <c r="G27" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="88"/>
       <c r="I27" s="93">
@@ -3943,12 +3965,12 @@
         <v>252</v>
       </c>
       <c r="O27" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="94"/>
       <c r="C28" s="94"/>
@@ -3977,12 +3999,12 @@
         <v>257</v>
       </c>
       <c r="O28" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="94">
         <v>43556</v>
@@ -4015,12 +4037,12 @@
         <v>257</v>
       </c>
       <c r="O29" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="94">
         <v>43556</v>
@@ -4034,7 +4056,7 @@
       </c>
       <c r="F30" s="66"/>
       <c r="G30" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="88"/>
       <c r="I30" s="93">
@@ -4053,12 +4075,12 @@
         <v>256</v>
       </c>
       <c r="O30" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="94"/>
       <c r="C31" s="94"/>
@@ -4068,7 +4090,7 @@
       </c>
       <c r="F31" s="66"/>
       <c r="G31" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" s="88"/>
       <c r="I31" s="95">
@@ -4087,7 +4109,7 @@
         <v>256</v>
       </c>
       <c r="O31" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4129,16 +4151,16 @@
         <v>26</v>
       </c>
       <c r="B1" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="116" t="s">
-        <v>86</v>
-      </c>
       <c r="D1" s="117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="118"/>
     </row>
@@ -4147,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="118"/>
       <c r="D2" s="119">
@@ -4175,7 +4197,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="118"/>
       <c r="D4" s="119">
@@ -4189,7 +4211,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="118"/>
       <c r="D5" s="119">
@@ -4200,10 +4222,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="118"/>
       <c r="D6" s="118">
@@ -4228,13 +4250,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="119">
         <v>701</v>
@@ -4246,7 +4268,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="118" t="s">
         <v>35</v>
@@ -4288,7 +4310,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="118" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="119">
         <v>1</v>
@@ -4300,13 +4322,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="119">
         <v>2</v>
@@ -4324,7 +4346,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="119">
         <v>10</v>
@@ -4336,10 +4358,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="118"/>
       <c r="D14" s="119">
@@ -4352,7 +4374,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="118" t="s">
         <v>35</v>
@@ -4387,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="118"/>
       <c r="D17" s="119">
@@ -4415,7 +4437,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="118"/>
       <c r="D19" s="119">
@@ -4443,7 +4465,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="118"/>
       <c r="D21" s="119">
@@ -4457,7 +4479,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="118"/>
       <c r="D22" s="119">
@@ -4468,7 +4490,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="118" t="s">
         <v>30</v>
@@ -4486,7 +4508,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="118" t="s">
         <v>37</v>
@@ -4500,10 +4522,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="118"/>
       <c r="D25" s="119">
@@ -4514,7 +4536,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="118" t="s">
         <v>37</v>
@@ -4528,10 +4550,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="118"/>
       <c r="D27" s="119">
@@ -4542,7 +4564,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="118" t="s">
         <v>37</v>
@@ -4556,7 +4578,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="118" t="s">
         <v>37</v>
@@ -4570,10 +4592,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="118"/>
       <c r="D30" s="119">
@@ -4584,10 +4606,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="118"/>
       <c r="D31" s="119">
@@ -4625,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4752,7 +4774,7 @@
         <v>43557</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -4767,10 +4789,10 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4787,15 +4809,15 @@
         <v>43678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="22">
         <v>43768</v>
@@ -4807,15 +4829,15 @@
         <v>43678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="22">
         <v>43768</v>
@@ -4827,10 +4849,10 @@
         <v>43678</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4927,7 +4949,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7">
         <v>260</v>
@@ -4935,7 +4957,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="22">
         <v>43556</v>
@@ -4947,7 +4969,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7">
         <v>963</v>
@@ -4955,7 +4977,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="22">
         <v>43556</v>
@@ -4967,10 +4989,10 @@
         <v>43758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4991,7 +5013,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>16</v>
@@ -5011,7 +5033,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -5074,13 +5096,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Scenarios/common/masterinput_v4.xlsx
+++ b/Scenarios/common/masterinput_v4.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tqc268\Desktop\Github\StyrN\Scenarios\common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Crops!$A$1:$N$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -486,12 +481,15 @@
   </si>
   <si>
     <t>SB-green</t>
+  </si>
+  <si>
+    <t>30/6,  5/8, 15/9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1596,7 +1594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1606,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,8 +2962,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3377,7 +3375,7 @@
         <v>43687</v>
       </c>
       <c r="F11" s="63">
-        <v>43723</v>
+        <v>43733</v>
       </c>
       <c r="G11" s="65" t="s">
         <v>35</v>
@@ -3421,7 +3419,7 @@
         <v>43678</v>
       </c>
       <c r="F12" s="63">
-        <v>43723</v>
+        <v>43733</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>83</v>
@@ -3739,7 +3737,7 @@
       <c r="C21" s="94"/>
       <c r="D21" s="94"/>
       <c r="E21" s="94" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="G21" s="65" t="s">
         <v>54</v>

--- a/Scenarios/common/masterinput_v4.xlsx
+++ b/Scenarios/common/masterinput_v4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tqc268\Desktop\Github\StyrN\Scenarios\common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Crops!$A$1:$N$29</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -489,7 +494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1594,7 +1599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1604,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2962,8 +2967,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,7 +5083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Scenarios/common/masterinput_v4.xlsx
+++ b/Scenarios/common/masterinput_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -470,37 +470,37 @@
     <t>Climate</t>
   </si>
   <si>
-    <t>JB1-1-2-2_med</t>
-  </si>
-  <si>
     <t>East.dwf</t>
   </si>
   <si>
-    <t>JB1-1-2-2_low</t>
-  </si>
-  <si>
     <t>West.dwf</t>
   </si>
   <si>
-    <t>JB1-1-2-2_high</t>
-  </si>
-  <si>
-    <t>JB4-4-7-7-7_med</t>
-  </si>
-  <si>
-    <t>JB4-4-7-7-7_low</t>
-  </si>
-  <si>
-    <t>JB4-4-7-7-7_high</t>
-  </si>
-  <si>
-    <t>JB6-6-7-7-7L_med</t>
-  </si>
-  <si>
-    <t>JB6-6-7-7-7L_low</t>
-  </si>
-  <si>
-    <t>JB6-6-7-7-7L_high</t>
+    <t>JB1med</t>
+  </si>
+  <si>
+    <t>JB1low</t>
+  </si>
+  <si>
+    <t>JB1high</t>
+  </si>
+  <si>
+    <t>JB4med</t>
+  </si>
+  <si>
+    <t>JB4low</t>
+  </si>
+  <si>
+    <t>JB4high</t>
+  </si>
+  <si>
+    <t>JB6med</t>
+  </si>
+  <si>
+    <t>JB6low</t>
+  </si>
+  <si>
+    <t>JB6high</t>
   </si>
 </sst>
 </file>
@@ -2976,7 +2976,7 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H13"/>
     </sheetView>
   </sheetViews>
@@ -5092,8 +5092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5112,18 +5112,18 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
